--- a/docs/Mapping/AdmissionStat.xlsx
+++ b/docs/Mapping/AdmissionStat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\python\Book\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SnowflakeEnriched\docs\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9953D5AD-0094-43F4-83B7-2F62894F5BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{229BAF8D-AD3C-4FC6-A736-13781C10E84D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AB967FAB-1F2D-4960-BA37-6CEE31A5434A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Transformed Entity</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>UNITID</t>
-  </si>
-  <si>
-    <t>Snowflake transformation</t>
   </si>
   <si>
     <t>Snowflake extract load - Entity mapping</t>
@@ -527,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -539,17 +536,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -568,15 +554,6 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -645,77 +622,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -781,6 +732,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thick">
           <color auto="1"/>
@@ -832,12 +791,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B04EBD2-A9F5-4CEA-BAE5-0ADB08E7DA66}" name="Table256" displayName="Table256" ref="B3:E43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D10C2E3-9B53-46AB-97EC-4644B4C969F8}" name="CSV file column Identifier" dataDxfId="4" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{AE5604FE-FD13-403C-A2BB-2C12A95A19E8}" name="Snowflake  staged  column identifier ID" dataDxfId="3" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{7F0D0C29-BEB0-4F4B-B0CF-61B2BA8DA3F0}" name="Snowflake extract load - Entity mapping" dataDxfId="2" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{50176AD9-5A75-41FF-9046-D7A8A701EDB7}" name="Snowflake transformation" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B04EBD2-A9F5-4CEA-BAE5-0ADB08E7DA66}" name="Table256" displayName="Table256" ref="B3:D43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5D10C2E3-9B53-46AB-97EC-4644B4C969F8}" name="CSV file column Identifier" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{AE5604FE-FD13-403C-A2BB-2C12A95A19E8}" name="Snowflake  staged  column identifier ID" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{7F0D0C29-BEB0-4F4B-B0CF-61B2BA8DA3F0}" name="Snowflake extract load - Entity mapping" dataDxfId="0" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1140,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79818E-3A7F-4AD6-916F-D5E7BFCF17F4}">
-  <dimension ref="B2:H44"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E43"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1152,564 +1110,520 @@
     <col min="2" max="2" width="13.3671875" customWidth="1"/>
     <col min="3" max="3" width="17.578125" customWidth="1"/>
     <col min="4" max="4" width="61.68359375" customWidth="1"/>
-    <col min="5" max="5" width="22.734375" customWidth="1"/>
-    <col min="7" max="7" width="16.15625" customWidth="1"/>
-    <col min="8" max="8" width="31.1015625" customWidth="1"/>
+    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="7" max="7" width="31.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:8" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:7" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="G4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="G9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="F13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="G13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="13" t="s">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="13" t="s">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="13" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="13" t="s">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="13" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="13" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="13" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="13" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="13" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="13" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="13" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="13" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="13" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="13" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="13" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="13" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="13" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="13" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="13" t="s">
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="13" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="13" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="13" t="s">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="13" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="13" t="s">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="13" t="s">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="13" t="s">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="D41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="13" t="s">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="D42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="13" t="s">
+    </row>
+    <row r="43" spans="2:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B43" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="D43" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    </row>
+    <row r="44" spans="2:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
